--- a/Complete-spreadsheets/EO/F7-list-EO.xlsx
+++ b/Complete-spreadsheets/EO/F7-list-EO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAA2756-DCBE-4FDB-A6BA-310EC1008109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AF37A2-100D-4EFD-B3D5-D6088A6E085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,23 +491,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>71.342560342995512</v>
-      </c>
-      <c r="C2" s="3">
-        <v>15.872131456550941</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.2473321178748029</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.6825649218121439</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.250579514458253</v>
+      <c r="B2" s="4">
+        <v>96.056552839281579</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.0841574526910769</v>
+      </c>
+      <c r="D2" s="4">
+        <v>9.086621972886249</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.351623099565129</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.6361024268864992</v>
       </c>
       <c r="G2">
-        <v>93.395168353691673</v>
+        <v>119.2150577913105</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -516,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>27</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -529,23 +529,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>197.19557694820219</v>
-      </c>
-      <c r="C3" s="3">
-        <v>38.771006129642629</v>
-      </c>
-      <c r="D3" s="3">
-        <v>7.1547440618584659</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.6539789438009032</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.0292098798371239</v>
+      <c r="B3" s="4">
+        <v>176.70076672829839</v>
+      </c>
+      <c r="C3" s="4">
+        <v>21.35531777722386</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.1835035619637382</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.6867882072656188</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.8688233420542129</v>
       </c>
       <c r="G3">
-        <v>247.80451596334129</v>
+        <v>206.79519961680589</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -567,23 +567,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>7.0183899513316126</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3.9796029988236459</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2.973893122103676</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.2464384864415781</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.59547467777185</v>
+      <c r="B4" s="4">
+        <v>33.488059049759578</v>
+      </c>
+      <c r="C4" s="4">
+        <v>14.093264234874139</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.772147002058333</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.571199393909223</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.9772133365611202</v>
       </c>
       <c r="G4">
-        <v>18.813799236472359</v>
+        <v>56.901883017162397</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -606,22 +606,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>96.056552839281579</v>
+        <v>227.36100573884579</v>
       </c>
       <c r="C5" s="4">
-        <v>8.0841574526910769</v>
+        <v>18.477513129638819</v>
       </c>
       <c r="D5" s="4">
-        <v>9.086621972886249</v>
+        <v>8.6929807383383206</v>
       </c>
       <c r="E5" s="4">
-        <v>3.351623099565129</v>
+        <v>3.4640093185806839</v>
       </c>
       <c r="F5" s="4">
-        <v>2.6361024268864992</v>
+        <v>3.056916255746533</v>
       </c>
       <c r="G5">
-        <v>119.2150577913105</v>
+        <v>261.05242518115011</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -643,23 +643,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>127.96505238696621</v>
-      </c>
-      <c r="C6" s="3">
-        <v>30.396849133836689</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4.2872678904591428</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2.4011192685527001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.7813525285257459</v>
+      <c r="B6" s="4">
+        <v>17.622061525075459</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.4209134505335279</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.2962477943176469</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.048004369241343</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.2954674871093141</v>
       </c>
       <c r="G6">
-        <v>167.8316412083405</v>
+        <v>28.6826946262773</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
@@ -682,22 +682,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>176.70076672829839</v>
+        <v>17.480378352190819</v>
       </c>
       <c r="C7" s="4">
-        <v>21.35531777722386</v>
+        <v>22.509733882889829</v>
       </c>
       <c r="D7" s="4">
-        <v>3.1835035619637382</v>
+        <v>3.0326392516618759</v>
       </c>
       <c r="E7" s="4">
-        <v>2.6867882072656188</v>
+        <v>2.904845185674088</v>
       </c>
       <c r="F7" s="4">
-        <v>2.8688233420542129</v>
+        <v>3.3945950680788379</v>
       </c>
       <c r="G7">
-        <v>206.79519961680589</v>
+        <v>49.322191740495448</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -720,22 +720,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>33.488059049759578</v>
+        <v>63.108558205763188</v>
       </c>
       <c r="C8" s="4">
-        <v>14.093264234874139</v>
+        <v>117.7766164398934</v>
       </c>
       <c r="D8" s="4">
-        <v>3.772147002058333</v>
+        <v>7.9527144117099242</v>
       </c>
       <c r="E8" s="4">
-        <v>2.571199393909223</v>
+        <v>5.9309017998829283</v>
       </c>
       <c r="F8" s="4">
-        <v>2.9772133365611202</v>
+        <v>4.0188976196855659</v>
       </c>
       <c r="G8">
-        <v>56.901883017162397</v>
+        <v>198.78768847693499</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -757,23 +757,23 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>58.451619248493913</v>
-      </c>
-      <c r="C9" s="3">
-        <v>24.798287654160429</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9.4370665448428017</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4.1571136016163086</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2.9920657012009459</v>
+      <c r="B9" s="4">
+        <v>122.462605514777</v>
+      </c>
+      <c r="C9" s="4">
+        <v>15.81501947310953</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.8120859646350191</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.8530349557375279</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.0438738856118253</v>
       </c>
       <c r="G9">
-        <v>99.836152750314412</v>
+        <v>148.98661979387089</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>14</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -796,22 +796,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>227.36100573884579</v>
+        <v>11.61137515931463</v>
       </c>
       <c r="C10" s="4">
-        <v>18.477513129638819</v>
+        <v>45.157552085539272</v>
       </c>
       <c r="D10" s="4">
-        <v>8.6929807383383206</v>
+        <v>5.6397450279682859</v>
       </c>
       <c r="E10" s="4">
-        <v>3.4640093185806839</v>
+        <v>3.2104747323217402</v>
       </c>
       <c r="F10" s="4">
-        <v>3.056916255746533</v>
+        <v>4.1372856581453812</v>
       </c>
       <c r="G10">
-        <v>261.05242518115011</v>
+        <v>69.756432663289274</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>17.622061525075459</v>
+        <v>30.890010438720861</v>
       </c>
       <c r="C11" s="4">
-        <v>3.4209134505335279</v>
+        <v>10.834381743275429</v>
       </c>
       <c r="D11" s="4">
-        <v>2.2962477943176469</v>
+        <v>17.272408754567049</v>
       </c>
       <c r="E11" s="4">
-        <v>2.048004369241343</v>
+        <v>3.9791955676339388</v>
       </c>
       <c r="F11" s="4">
-        <v>3.2954674871093141</v>
+        <v>4.5601924598612253</v>
       </c>
       <c r="G11">
-        <v>28.6826946262773</v>
+        <v>67.53618896405851</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>17.480378352190819</v>
+        <v>24.944690126577029</v>
       </c>
       <c r="C12" s="4">
-        <v>22.509733882889829</v>
+        <v>5.2299868178641624</v>
       </c>
       <c r="D12" s="4">
-        <v>3.0326392516618759</v>
+        <v>3.131546350922922</v>
       </c>
       <c r="E12" s="4">
-        <v>2.904845185674088</v>
+        <v>2.6855797262318308</v>
       </c>
       <c r="F12" s="4">
-        <v>3.3945950680788379</v>
+        <v>5.2627735300412306</v>
       </c>
       <c r="G12">
-        <v>49.322191740495448</v>
+        <v>41.254576551637172</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -909,23 +909,23 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>34.867834565583728</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4.9316375172474114</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2.4983385626124521</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.63541568355449</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3.7826606446697291</v>
+      <c r="B13" s="4">
+        <v>197.6618589928957</v>
+      </c>
+      <c r="C13" s="4">
+        <v>12.367349033826089</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9.4358221958323369</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5.1252687033958768</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.2171103684241276</v>
       </c>
       <c r="G13">
-        <v>48.715886973667807</v>
+        <v>230.80740929437411</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -947,23 +947,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>449.94611930986122</v>
-      </c>
-      <c r="C14" s="3">
-        <v>39.674175980582113</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8.1730400041319591</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.9683335064217937</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3.8813064822061221</v>
+      <c r="B14" s="4">
+        <v>86.733005595096103</v>
+      </c>
+      <c r="C14" s="4">
+        <v>20.924211838104661</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4.583540369040902</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5.009734227156172</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7.5338902950045004</v>
       </c>
       <c r="G14">
-        <v>506.64297528320299</v>
+        <v>124.7843823244023</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
@@ -986,22 +986,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>63.108558205763188</v>
+        <v>133.23305459004439</v>
       </c>
       <c r="C15" s="4">
-        <v>117.7766164398934</v>
+        <v>8.9009031913308529</v>
       </c>
       <c r="D15" s="4">
-        <v>7.9527144117099242</v>
+        <v>4.7503373510575937</v>
       </c>
       <c r="E15" s="4">
-        <v>5.9309017998829283</v>
+        <v>5.1313771470217606</v>
       </c>
       <c r="F15" s="4">
-        <v>4.0188976196855659</v>
+        <v>8.6205819861003228</v>
       </c>
       <c r="G15">
-        <v>198.78768847693499</v>
+        <v>160.63625426555501</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1024,22 +1024,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>122.462605514777</v>
+        <v>299.43372812593088</v>
       </c>
       <c r="C16" s="4">
-        <v>15.81501947310953</v>
+        <v>39.81297971845008</v>
       </c>
       <c r="D16" s="4">
-        <v>3.8120859646350191</v>
+        <v>9.8905980088207475</v>
       </c>
       <c r="E16" s="4">
-        <v>2.8530349557375279</v>
+        <v>7.4202404863400488</v>
       </c>
       <c r="F16" s="4">
-        <v>4.0438738856118253</v>
+        <v>10.538778639040521</v>
       </c>
       <c r="G16">
-        <v>148.98661979387089</v>
+        <v>367.09632497858217</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1061,23 +1061,23 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3">
-        <v>105.08481780051591</v>
-      </c>
-      <c r="C17" s="3">
-        <v>30.63412564519194</v>
-      </c>
-      <c r="D17" s="3">
-        <v>13.285939054284171</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9.4267695533246822</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4.0457736917894422</v>
+      <c r="B17" s="4">
+        <v>94.111531823281737</v>
+      </c>
+      <c r="C17" s="4">
+        <v>23.537590600974859</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.8076293233097784</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.4696374775648309</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10.62225570511859</v>
       </c>
       <c r="G17">
-        <v>162.4774257451061</v>
+        <v>138.54864493024979</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -1099,23 +1099,23 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3">
-        <v>248.27346448276961</v>
-      </c>
-      <c r="C18" s="3">
-        <v>82.512412220581965</v>
-      </c>
-      <c r="D18" s="3">
-        <v>18.40918335627482</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6.0525304245677596</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4.0478570450437914</v>
+      <c r="B18" s="4">
+        <v>167.85223571089639</v>
+      </c>
+      <c r="C18" s="4">
+        <v>39.006232778324673</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5.9772619368677384</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8.4167501700658427</v>
+      </c>
+      <c r="F18" s="4">
+        <v>11.477219511407929</v>
       </c>
       <c r="G18">
-        <v>359.29544752923789</v>
+        <v>232.72970010756259</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -1138,22 +1138,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>11.61137515931463</v>
+        <v>36.225708091857307</v>
       </c>
       <c r="C19" s="4">
-        <v>45.157552085539272</v>
+        <v>39.348321159493999</v>
       </c>
       <c r="D19" s="4">
-        <v>5.6397450279682859</v>
+        <v>9.0485075459655846</v>
       </c>
       <c r="E19" s="4">
-        <v>3.2104747323217402</v>
+        <v>11.166676922657331</v>
       </c>
       <c r="F19" s="4">
-        <v>4.1372856581453812</v>
+        <v>18.379046966686762</v>
       </c>
       <c r="G19">
-        <v>69.756432663289274</v>
+        <v>114.168260686661</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1175,23 +1175,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>24.287251437969839</v>
-      </c>
-      <c r="C20" s="3">
-        <v>7.040925243710956</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4.6956888157797776</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.097716057068471</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4.2372479878208393</v>
+      <c r="B20" s="4">
+        <v>43.497021582157522</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4.1668437047698568</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3.261594061312707</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8.619342766115448</v>
+      </c>
+      <c r="F20" s="4">
+        <v>23.575649267925041</v>
       </c>
       <c r="G20">
-        <v>44.358829542349881</v>
+        <v>83.12045138228055</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -1214,22 +1214,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>30.890010438720861</v>
+        <v>200.67463168854209</v>
       </c>
       <c r="C21" s="4">
-        <v>10.834381743275429</v>
+        <v>34.784260998347818</v>
       </c>
       <c r="D21" s="4">
-        <v>17.272408754567049</v>
+        <v>13.55142477972446</v>
       </c>
       <c r="E21" s="4">
-        <v>3.9791955676339388</v>
+        <v>11.28172405616821</v>
       </c>
       <c r="F21" s="4">
-        <v>4.5601924598612253</v>
+        <v>24.115767630541391</v>
       </c>
       <c r="G21">
-        <v>67.53618896405851</v>
+        <v>284.40780915332402</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1252,22 +1252,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>24.944690126577029</v>
+        <v>36.129678025708728</v>
       </c>
       <c r="C22" s="4">
-        <v>5.2299868178641624</v>
+        <v>33.546000619513748</v>
       </c>
       <c r="D22" s="4">
-        <v>3.131546350922922</v>
+        <v>7.2897440266315963</v>
       </c>
       <c r="E22" s="4">
-        <v>2.6855797262318308</v>
+        <v>11.883636178170949</v>
       </c>
       <c r="F22" s="4">
-        <v>5.2627735300412306</v>
+        <v>31.48652631066134</v>
       </c>
       <c r="G22">
-        <v>41.254576551637172</v>
+        <v>120.33558516068641</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>197.6618589928957</v>
+        <v>122.7673044995955</v>
       </c>
       <c r="C23" s="4">
-        <v>12.367349033826089</v>
+        <v>21.891746707853908</v>
       </c>
       <c r="D23" s="4">
-        <v>9.4358221958323369</v>
+        <v>14.407923047736659</v>
       </c>
       <c r="E23" s="4">
-        <v>5.1252687033958768</v>
+        <v>27.376657938314221</v>
       </c>
       <c r="F23" s="4">
-        <v>6.2171103684241276</v>
+        <v>47.095571629024221</v>
       </c>
       <c r="G23">
-        <v>230.80740929437411</v>
+        <v>233.5392038225246</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1328,22 +1328,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="4">
-        <v>86.733005595096103</v>
+        <v>76.090572756892868</v>
       </c>
       <c r="C24" s="4">
-        <v>20.924211838104661</v>
+        <v>21.821337754858462</v>
       </c>
       <c r="D24" s="4">
-        <v>4.583540369040902</v>
+        <v>40.583753139013311</v>
       </c>
       <c r="E24" s="4">
-        <v>5.009734227156172</v>
+        <v>33.177702803307668</v>
       </c>
       <c r="F24" s="4">
-        <v>7.5338902950045004</v>
+        <v>57.952621009383257</v>
       </c>
       <c r="G24">
-        <v>124.7843823244023</v>
+        <v>229.62598746345569</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -1366,22 +1366,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>35.191271499149821</v>
+        <v>71.342560342995512</v>
       </c>
       <c r="C25" s="3">
-        <v>9.2335877681189089</v>
+        <v>15.872131456550941</v>
       </c>
       <c r="D25" s="3">
-        <v>3.9053233591067711</v>
+        <v>3.2473321178748029</v>
       </c>
       <c r="E25" s="3">
-        <v>5.7975777920934277</v>
+        <v>1.6825649218121439</v>
       </c>
       <c r="F25" s="3">
-        <v>7.9455862380707076</v>
+        <v>1.250579514458253</v>
       </c>
       <c r="G25">
-        <v>62.073346656539663</v>
+        <v>93.395168353691673</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1403,23 +1403,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>133.23305459004439</v>
-      </c>
-      <c r="C26" s="4">
-        <v>8.9009031913308529</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4.7503373510575937</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5.1313771470217606</v>
-      </c>
-      <c r="F26" s="4">
-        <v>8.6205819861003228</v>
+      <c r="B26" s="3">
+        <v>197.19557694820219</v>
+      </c>
+      <c r="C26" s="3">
+        <v>38.771006129642629</v>
+      </c>
+      <c r="D26" s="3">
+        <v>7.1547440618584659</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2.6539789438009032</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.0292098798371239</v>
       </c>
       <c r="G26">
-        <v>160.63625426555501</v>
+        <v>247.80451596334129</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>
@@ -1442,22 +1442,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="3">
-        <v>333.78285639961388</v>
+        <v>7.0183899513316126</v>
       </c>
       <c r="C27" s="3">
-        <v>19.29675507454764</v>
+        <v>3.9796029988236459</v>
       </c>
       <c r="D27" s="3">
-        <v>13.73151205126492</v>
+        <v>2.973893122103676</v>
       </c>
       <c r="E27" s="3">
-        <v>10.81129198075733</v>
+        <v>2.2464384864415781</v>
       </c>
       <c r="F27" s="3">
-        <v>8.7805243600002481</v>
+        <v>2.59547467777185</v>
       </c>
       <c r="G27">
-        <v>386.40293986618423</v>
+        <v>18.813799236472359</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -1480,22 +1480,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>205.2247871099996</v>
+        <v>127.96505238696621</v>
       </c>
       <c r="C28" s="3">
-        <v>30.580542834484842</v>
+        <v>30.396849133836689</v>
       </c>
       <c r="D28" s="3">
-        <v>5.0032246532223539</v>
+        <v>4.2872678904591428</v>
       </c>
       <c r="E28" s="3">
-        <v>6.6910232260389026</v>
+        <v>2.4011192685527001</v>
       </c>
       <c r="F28" s="3">
-        <v>8.9272081210198344</v>
+        <v>2.7813525285257459</v>
       </c>
       <c r="G28">
-        <v>256.42678594476553</v>
+        <v>167.8316412083405</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1518,22 +1518,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>22.944363893642478</v>
+        <v>58.451619248493913</v>
       </c>
       <c r="C29" s="3">
-        <v>7.1704635040255749</v>
+        <v>24.798287654160429</v>
       </c>
       <c r="D29" s="3">
-        <v>6.6087480651367212</v>
+        <v>9.4370665448428017</v>
       </c>
       <c r="E29" s="3">
-        <v>15.1546636964837</v>
+        <v>4.1571136016163086</v>
       </c>
       <c r="F29" s="3">
-        <v>9.1119953064647774</v>
+        <v>2.9920657012009459</v>
       </c>
       <c r="G29">
-        <v>60.990234465753261</v>
+        <v>99.836152750314412</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1555,23 +1555,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>299.43372812593088</v>
-      </c>
-      <c r="C30" s="4">
-        <v>39.81297971845008</v>
-      </c>
-      <c r="D30" s="4">
-        <v>9.8905980088207475</v>
-      </c>
-      <c r="E30" s="4">
-        <v>7.4202404863400488</v>
-      </c>
-      <c r="F30" s="4">
-        <v>10.538778639040521</v>
+      <c r="B30" s="3">
+        <v>34.867834565583728</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.9316375172474114</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2.4983385626124521</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2.63541568355449</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.7826606446697291</v>
       </c>
       <c r="G30">
-        <v>367.09632497858217</v>
+        <v>48.715886973667807</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1580,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>6</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>12</v>
@@ -1594,22 +1594,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>164.80107522892479</v>
+        <v>449.94611930986122</v>
       </c>
       <c r="C31" s="3">
-        <v>30.34323873438635</v>
+        <v>39.674175980582113</v>
       </c>
       <c r="D31" s="3">
-        <v>7.3318751968528746</v>
+        <v>8.1730400041319591</v>
       </c>
       <c r="E31" s="3">
-        <v>9.292194659170633</v>
+        <v>4.9683335064217937</v>
       </c>
       <c r="F31" s="3">
-        <v>10.57172052470386</v>
+        <v>3.8813064822061221</v>
       </c>
       <c r="G31">
-        <v>222.34010434403851</v>
+        <v>506.64297528320299</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1631,23 +1631,23 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4">
-        <v>94.111531823281737</v>
-      </c>
-      <c r="C32" s="4">
-        <v>23.537590600974859</v>
-      </c>
-      <c r="D32" s="4">
-        <v>4.8076293233097784</v>
-      </c>
-      <c r="E32" s="4">
-        <v>5.4696374775648309</v>
-      </c>
-      <c r="F32" s="4">
-        <v>10.62225570511859</v>
+      <c r="B32" s="3">
+        <v>105.08481780051591</v>
+      </c>
+      <c r="C32" s="3">
+        <v>30.63412564519194</v>
+      </c>
+      <c r="D32" s="3">
+        <v>13.285939054284171</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9.4267695533246822</v>
+      </c>
+      <c r="F32" s="3">
+        <v>4.0457736917894422</v>
       </c>
       <c r="G32">
-        <v>138.54864493024979</v>
+        <v>162.4774257451061</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>16</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
         <v>12</v>
@@ -1670,22 +1670,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>286.47881963685819</v>
+        <v>248.27346448276961</v>
       </c>
       <c r="C33" s="3">
-        <v>62.733832883639941</v>
+        <v>82.512412220581965</v>
       </c>
       <c r="D33" s="3">
-        <v>9.2443346946499467</v>
+        <v>18.40918335627482</v>
       </c>
       <c r="E33" s="3">
-        <v>8.6946538731771597</v>
+        <v>6.0525304245677596</v>
       </c>
       <c r="F33" s="3">
-        <v>11.07675712018424</v>
+        <v>4.0478570450437914</v>
       </c>
       <c r="G33">
-        <v>378.22839820850959</v>
+        <v>359.29544752923789</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1707,23 +1707,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>167.85223571089639</v>
-      </c>
-      <c r="C34" s="4">
-        <v>39.006232778324673</v>
-      </c>
-      <c r="D34" s="4">
-        <v>5.9772619368677384</v>
-      </c>
-      <c r="E34" s="4">
-        <v>8.4167501700658427</v>
-      </c>
-      <c r="F34" s="4">
-        <v>11.477219511407929</v>
+      <c r="B34" s="3">
+        <v>24.287251437969839</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7.040925243710956</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4.6956888157797776</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4.097716057068471</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4.2372479878208393</v>
       </c>
       <c r="G34">
-        <v>232.72970010756259</v>
+        <v>44.358829542349881</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1732,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>10</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>12</v>
@@ -1746,22 +1746,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>181.4650743217565</v>
+        <v>35.191271499149821</v>
       </c>
       <c r="C35" s="3">
-        <v>37.741501539068878</v>
+        <v>9.2335877681189089</v>
       </c>
       <c r="D35" s="3">
-        <v>9.6317508674476731</v>
+        <v>3.9053233591067711</v>
       </c>
       <c r="E35" s="3">
-        <v>7.6917952939263188</v>
+        <v>5.7975777920934277</v>
       </c>
       <c r="F35" s="3">
-        <v>11.5959282315842</v>
+        <v>7.9455862380707076</v>
       </c>
       <c r="G35">
-        <v>248.12605025378349</v>
+        <v>62.073346656539663</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1784,22 +1784,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>40.199164789026732</v>
+        <v>333.78285639961388</v>
       </c>
       <c r="C36" s="3">
-        <v>13.5981870641006</v>
+        <v>19.29675507454764</v>
       </c>
       <c r="D36" s="3">
-        <v>13.276783774291379</v>
+        <v>13.73151205126492</v>
       </c>
       <c r="E36" s="3">
-        <v>12.26276658370522</v>
+        <v>10.81129198075733</v>
       </c>
       <c r="F36" s="3">
-        <v>15.467220781196421</v>
+        <v>8.7805243600002481</v>
       </c>
       <c r="G36">
-        <v>94.804122992320359</v>
+        <v>386.40293986618423</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1822,22 +1822,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>35.713182787370528</v>
+        <v>205.2247871099996</v>
       </c>
       <c r="C37" s="3">
-        <v>30.363437720752671</v>
+        <v>30.580542834484842</v>
       </c>
       <c r="D37" s="3">
-        <v>8.0397464645513619</v>
+        <v>5.0032246532223539</v>
       </c>
       <c r="E37" s="3">
-        <v>8.3609828335958056</v>
+        <v>6.6910232260389026</v>
       </c>
       <c r="F37" s="3">
-        <v>16.009271837844921</v>
+        <v>8.9272081210198344</v>
       </c>
       <c r="G37">
-        <v>98.486621644115274</v>
+        <v>256.42678594476553</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1860,22 +1860,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>50.580909660877687</v>
+        <v>22.944363893642478</v>
       </c>
       <c r="C38" s="3">
-        <v>36.982076020778138</v>
+        <v>7.1704635040255749</v>
       </c>
       <c r="D38" s="3">
-        <v>29.39274325011657</v>
+        <v>6.6087480651367212</v>
       </c>
       <c r="E38" s="3">
-        <v>27.399468167192751</v>
+        <v>15.1546636964837</v>
       </c>
       <c r="F38" s="3">
-        <v>18.11823562292123</v>
+        <v>9.1119953064647774</v>
       </c>
       <c r="G38">
-        <v>162.47343272188641</v>
+        <v>60.990234465753261</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1897,23 +1897,23 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4">
-        <v>36.225708091857307</v>
-      </c>
-      <c r="C39" s="4">
-        <v>39.348321159493999</v>
-      </c>
-      <c r="D39" s="4">
-        <v>9.0485075459655846</v>
-      </c>
-      <c r="E39" s="4">
-        <v>11.166676922657331</v>
-      </c>
-      <c r="F39" s="4">
-        <v>18.379046966686762</v>
+      <c r="B39" s="3">
+        <v>164.80107522892479</v>
+      </c>
+      <c r="C39" s="3">
+        <v>30.34323873438635</v>
+      </c>
+      <c r="D39" s="3">
+        <v>7.3318751968528746</v>
+      </c>
+      <c r="E39" s="3">
+        <v>9.292194659170633</v>
+      </c>
+      <c r="F39" s="3">
+        <v>10.57172052470386</v>
       </c>
       <c r="G39">
-        <v>114.168260686661</v>
+        <v>222.34010434403851</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1922,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>13</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -1936,22 +1936,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>35.710756210770953</v>
+        <v>286.47881963685819</v>
       </c>
       <c r="C40" s="3">
-        <v>11.72102053840293</v>
+        <v>62.733832883639941</v>
       </c>
       <c r="D40" s="3">
-        <v>7.9033414621112072</v>
+        <v>9.2443346946499467</v>
       </c>
       <c r="E40" s="3">
-        <v>23.15450011494417</v>
+        <v>8.6946538731771597</v>
       </c>
       <c r="F40" s="3">
-        <v>23.076625016364218</v>
+        <v>11.07675712018424</v>
       </c>
       <c r="G40">
-        <v>101.56624334259349</v>
+        <v>378.22839820850959</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1973,23 +1973,23 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4">
-        <v>43.497021582157522</v>
-      </c>
-      <c r="C41" s="4">
-        <v>4.1668437047698568</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3.261594061312707</v>
-      </c>
-      <c r="E41" s="4">
-        <v>8.619342766115448</v>
-      </c>
-      <c r="F41" s="4">
-        <v>23.575649267925041</v>
+      <c r="B41" s="3">
+        <v>181.4650743217565</v>
+      </c>
+      <c r="C41" s="3">
+        <v>37.741501539068878</v>
+      </c>
+      <c r="D41" s="3">
+        <v>9.6317508674476731</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7.6917952939263188</v>
+      </c>
+      <c r="F41" s="3">
+        <v>11.5959282315842</v>
       </c>
       <c r="G41">
-        <v>83.12045138228055</v>
+        <v>248.12605025378349</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2000,8 +2000,8 @@
       <c r="J41">
         <v>3</v>
       </c>
-      <c r="K41" s="4">
-        <v>0</v>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>12</v>
@@ -2011,23 +2011,23 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4">
-        <v>200.67463168854209</v>
-      </c>
-      <c r="C42" s="4">
-        <v>34.784260998347818</v>
-      </c>
-      <c r="D42" s="4">
-        <v>13.55142477972446</v>
-      </c>
-      <c r="E42" s="4">
-        <v>11.28172405616821</v>
-      </c>
-      <c r="F42" s="4">
-        <v>24.115767630541391</v>
+      <c r="B42" s="3">
+        <v>40.199164789026732</v>
+      </c>
+      <c r="C42" s="3">
+        <v>13.5981870641006</v>
+      </c>
+      <c r="D42" s="3">
+        <v>13.276783774291379</v>
+      </c>
+      <c r="E42" s="3">
+        <v>12.26276658370522</v>
+      </c>
+      <c r="F42" s="3">
+        <v>15.467220781196421</v>
       </c>
       <c r="G42">
-        <v>284.40780915332402</v>
+        <v>94.804122992320359</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>21</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>12</v>
@@ -2049,23 +2049,23 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4">
-        <v>36.129678025708728</v>
-      </c>
-      <c r="C43" s="4">
-        <v>33.546000619513748</v>
-      </c>
-      <c r="D43" s="4">
-        <v>7.2897440266315963</v>
-      </c>
-      <c r="E43" s="4">
-        <v>11.883636178170949</v>
-      </c>
-      <c r="F43" s="4">
-        <v>31.48652631066134</v>
+      <c r="B43" s="3">
+        <v>35.713182787370528</v>
+      </c>
+      <c r="C43" s="3">
+        <v>30.363437720752671</v>
+      </c>
+      <c r="D43" s="3">
+        <v>8.0397464645513619</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8.3609828335958056</v>
+      </c>
+      <c r="F43" s="3">
+        <v>16.009271837844921</v>
       </c>
       <c r="G43">
-        <v>120.33558516068641</v>
+        <v>98.486621644115274</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2074,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>23</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>12</v>
@@ -2088,22 +2088,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>29.28032458399294</v>
+        <v>50.580909660877687</v>
       </c>
       <c r="C44" s="3">
-        <v>11.47164844298824</v>
+        <v>36.982076020778138</v>
       </c>
       <c r="D44" s="3">
-        <v>19.57592785893603</v>
+        <v>29.39274325011657</v>
       </c>
       <c r="E44" s="3">
-        <v>32.041980989795647</v>
+        <v>27.399468167192751</v>
       </c>
       <c r="F44" s="3">
-        <v>43.147275330963673</v>
+        <v>18.11823562292123</v>
       </c>
       <c r="G44">
-        <v>135.5171572066765</v>
+        <v>162.47343272188641</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2125,23 +2125,23 @@
       <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="4">
-        <v>122.7673044995955</v>
-      </c>
-      <c r="C45" s="4">
-        <v>21.891746707853908</v>
-      </c>
-      <c r="D45" s="4">
-        <v>14.407923047736659</v>
-      </c>
-      <c r="E45" s="4">
-        <v>27.376657938314221</v>
-      </c>
-      <c r="F45" s="4">
-        <v>47.095571629024221</v>
+      <c r="B45" s="3">
+        <v>35.710756210770953</v>
+      </c>
+      <c r="C45" s="3">
+        <v>11.72102053840293</v>
+      </c>
+      <c r="D45" s="3">
+        <v>7.9033414621112072</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23.15450011494417</v>
+      </c>
+      <c r="F45" s="3">
+        <v>23.076625016364218</v>
       </c>
       <c r="G45">
-        <v>233.5392038225246</v>
+        <v>101.56624334259349</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>20</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
         <v>12</v>
@@ -2164,22 +2164,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>151.6284676939126</v>
+        <v>29.28032458399294</v>
       </c>
       <c r="C46" s="3">
-        <v>70.464999506463798</v>
+        <v>11.47164844298824</v>
       </c>
       <c r="D46" s="3">
-        <v>58.406857031912878</v>
+        <v>19.57592785893603</v>
       </c>
       <c r="E46" s="3">
-        <v>75.191688517036695</v>
+        <v>32.041980989795647</v>
       </c>
       <c r="F46" s="3">
-        <v>49.390084822712069</v>
+        <v>43.147275330963673</v>
       </c>
       <c r="G46">
-        <v>405.08209757203809</v>
+        <v>135.5171572066765</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2201,23 +2201,23 @@
       <c r="A47" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="4">
-        <v>76.090572756892868</v>
-      </c>
-      <c r="C47" s="4">
-        <v>21.821337754858462</v>
-      </c>
-      <c r="D47" s="4">
-        <v>40.583753139013311</v>
-      </c>
-      <c r="E47" s="4">
-        <v>33.177702803307668</v>
-      </c>
-      <c r="F47" s="4">
-        <v>57.952621009383257</v>
+      <c r="B47" s="3">
+        <v>151.6284676939126</v>
+      </c>
+      <c r="C47" s="3">
+        <v>70.464999506463798</v>
+      </c>
+      <c r="D47" s="3">
+        <v>58.406857031912878</v>
+      </c>
+      <c r="E47" s="3">
+        <v>75.191688517036695</v>
+      </c>
+      <c r="F47" s="3">
+        <v>49.390084822712069</v>
       </c>
       <c r="G47">
-        <v>229.62598746345569</v>
+        <v>405.08209757203809</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>12</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
       </c>
       <c r="L47" t="s">
         <v>12</v>
@@ -2350,8 +2350,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K55">
-    <sortCondition ref="F2:F55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
